--- a/soft/format message.xlsx
+++ b/soft/format message.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\Main mini\soft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kicads Schem\Main-mini\soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC281BC-24FD-4BE1-AEFC-C7C86860F24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E988C3-C07A-487D-A48F-3D89A264626D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="48" windowWidth="21336" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="3840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>bit number</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Write</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
@@ -366,23 +369,23 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -437,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -464,7 +467,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -477,12 +480,24 @@
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>

--- a/soft/format message.xlsx
+++ b/soft/format message.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kicads Schem\Main-mini\soft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\Main mini\soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E988C3-C07A-487D-A48F-3D89A264626D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF793C6-09C3-4A32-934F-559D71FA47D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="3840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="48" windowWidth="21336" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
-    <t>bit number</t>
-  </si>
-  <si>
     <t>Reade</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>byte number</t>
   </si>
 </sst>
 </file>
@@ -368,26 +368,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -429,74 +427,74 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>

--- a/soft/format message.xlsx
+++ b/soft/format message.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\Main mini\soft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kicads Schem\Main-mini\soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF793C6-09C3-4A32-934F-559D71FA47D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6B7FAE-AFAD-4AEF-8785-C9BBC8F08BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="48" windowWidth="21336" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Reade</t>
   </si>
@@ -42,10 +42,13 @@
     <t>Write</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>byte number</t>
+  </si>
+  <si>
+    <t>data1</t>
+  </si>
+  <si>
+    <t>data0</t>
   </si>
 </sst>
 </file>
@@ -368,24 +371,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -427,7 +432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -465,7 +470,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -482,23 +487,29 @@
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N5" s="1"/>
     </row>
   </sheetData>
